--- a/doc/全国社保缴费费率20180801/浙江.xlsx
+++ b/doc/全国社保缴费费率20180801/浙江.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView windowWidth="24135" windowHeight="13050" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="杭州" sheetId="4" r:id="rId1"/>
@@ -18,136 +18,107 @@
     <sheet name="台州" sheetId="12" r:id="rId9"/>
     <sheet name="丽水" sheetId="13" r:id="rId10"/>
     <sheet name="舟山" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>职工社保公积金缴费比例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>缴费工资基数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>比例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>个人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>养老保险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>失业保险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>医疗保险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工伤保险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>生育保险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>大病医疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾人保障金</t>
+  </si>
+  <si>
+    <t>补充工伤保险</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>公积金</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>15元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>残疾人保障金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充工伤保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>8-12%</t>
   </si>
   <si>
     <t>5-12%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5元</t>
   </si>
   <si>
     <t>27元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>64.65元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-12%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +135,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -176,15 +149,158 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +313,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -211,44 +513,44 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -256,88 +558,373 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_西藏" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="常规_西藏" xfId="31"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -620,19 +1207,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -828,178 +1415,178 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2819.25</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14096.25</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>0.105</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.012</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2819.25</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14096.25</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>2819.25</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14096.25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.281</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>0.10500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -1019,28 +1606,28 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -1236,178 +1823,178 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>3150</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>15750</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>0.06</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.005</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.006</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3150</v>
+      </c>
+      <c r="C10" s="9">
+        <v>15750</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>3150</v>
-      </c>
-      <c r="C10" s="6">
-        <v>15750</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.231</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.23100000000000004</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>0.10500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -1427,28 +2014,28 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -1644,184 +2231,184 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2819</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14097</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="7">
         <v>4420</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>4420</v>
       </c>
-      <c r="D6" s="3">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="5">
+        <v>0.055</v>
+      </c>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="6">
         <v>2819</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="6">
         <v>14097</v>
       </c>
-      <c r="D7" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
         <v>0.01</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.214</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.21400000000000002</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -1841,44 +2428,30 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C7:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -2074,174 +2647,174 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>3065</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>15321</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>0.19</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>0.08</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.279</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>0.10500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -2261,28 +2834,28 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -2478,186 +3051,186 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2820</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14100</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>4977</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>4977</v>
       </c>
-      <c r="D6" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="6">
         <v>2820</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="6">
         <v>14100</v>
       </c>
-      <c r="D7" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="8">
+        <v>0.002</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2820</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14100</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>2820</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14100</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.237</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.23700000000000004</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>0.10500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -2677,30 +3250,30 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="C7:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -2896,188 +3469,188 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2819.4</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14097</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>4699</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>4699</v>
       </c>
-      <c r="D6" s="3">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="5">
+        <v>0.082</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="6">
         <v>2819.4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="6">
         <v>14097</v>
       </c>
-      <c r="D7" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.008</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2819.4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14097</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.254</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2819.4</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14097</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.25400000000000006</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>0.10500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -3096,31 +3669,31 @@
     <row r="30" ht="24.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -3316,184 +3889,184 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2820</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14096</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>4699</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>0.05</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>2820</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.0065</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>4699</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.006</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2820</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14096</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>2820</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14096</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.2225</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.22250000000000003</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>0.10500000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -3512,29 +4085,29 @@
     <row r="30" ht="24.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C4:C8"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -3730,178 +4303,178 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2819</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14097</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
+        <v>0.085</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2819</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14097</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>2819</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14097</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.254</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.25400000000000006</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -3921,28 +4494,28 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="B4:B8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -4138,178 +4711,178 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2820</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14100</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>0.05</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.002</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
         <v>0.01</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2820</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14100</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>2820</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14100</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.222</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.22200000000000003</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -4329,28 +4902,28 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -4546,178 +5119,178 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2820</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14096</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>0.05</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.007</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2820</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14096</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.015</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>2820</v>
-      </c>
-      <c r="C10" s="6">
-        <v>14096</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.222</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.22200000000000003</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -4737,28 +5310,28 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="5" width="14.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
@@ -4954,174 +5527,174 @@
     <col min="16136" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="41.25" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="23.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="4">
         <v>2820</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>14096</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>0.08</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>0.004</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5">
+        <f>SUM(D4:D11)</f>
+        <v>0.234</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E4:E9)</f>
+        <v>0.085</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3">
-        <f>SUM(D4:D11)</f>
-        <v>0.23400000000000004</v>
-      </c>
-      <c r="E12" s="3">
-        <f>SUM(E4:E9)</f>
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" ht="24.75" customHeight="1"/>
+    <row r="15" ht="24.75" customHeight="1"/>
+    <row r="16" ht="24.75" customHeight="1" spans="8:8">
+      <c r="H16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="H16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1"/>
@@ -5141,15 +5714,14 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>